--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33233.61200162489</v>
+        <v>6613488.788323354</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33233.61200162489</v>
+        <v>6613488.788323354</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17411.99706986982</v>
+        <v>1047499.940180538</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17411.99706986982</v>
+        <v>1047499.940180538</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265812064.236285</v>
+        <v>51137553.89331355</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11246.2951736023</v>
+        <v>1190946.12205903</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21575.34801758129</v>
+        <v>2229932.18033342</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31904.40086156027</v>
+        <v>3268918.238607812</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42773.76520510089</v>
+        <v>4273337.61321415</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53643.12954864147</v>
+        <v>5277756.987820488</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64512.49389218207</v>
+        <v>6282176.362426824</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75381.85823572267</v>
+        <v>7286595.737033158</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86251.22257926327</v>
+        <v>8291015.11163949</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97025.988558962</v>
+        <v>9295756.147197541</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107811.683023506</v>
+        <v>10302671.95124076</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118315.7063839624</v>
+        <v>11326804.49451726</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128819.7297444188</v>
+        <v>12350937.03779376</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139323.7531048752</v>
+        <v>13375069.58107026</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150109.4475694208</v>
+        <v>14381985.38511334</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160895.1420339696</v>
+        <v>15388901.18915608</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>282.0000000001141</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
